--- a/presentations/img/Cosmos-Use-Cases.xlsx
+++ b/presentations/img/Cosmos-Use-Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10620"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjoakim/github/azure-cosmosdb/presentations/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AF77F00-4F78-694E-9E71-3680DDB22D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3580EA1A-65F7-9541-983A-40AE78D9722F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="2760" windowWidth="26420" windowHeight="11300" xr2:uid="{5CDAB8B2-4A9A-E441-857F-E1B8244CA104}"/>
+    <workbookView xWindow="1320" yWindow="2840" windowWidth="29400" windowHeight="15860" xr2:uid="{5CDAB8B2-4A9A-E441-857F-E1B8244CA104}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,26 +35,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>SQL</t>
   </si>
   <si>
-    <t>Transactons per Day</t>
-  </si>
-  <si>
     <t>Avg RU Cost</t>
   </si>
   <si>
     <t>Use-Case / Operation</t>
   </si>
   <si>
-    <t>Peak Trans per Hour</t>
-  </si>
-  <si>
-    <t>Ingest Nightly Batch of Documents</t>
-  </si>
-  <si>
     <t>Query Products by Category</t>
   </si>
   <si>
@@ -67,32 +58,62 @@
     <t>Update Product Price</t>
   </si>
   <si>
-    <t>Peak Sum RU/Hour</t>
-  </si>
-  <si>
     <t>upsert w/SDK</t>
   </si>
   <si>
     <t>SELECT …</t>
   </si>
   <si>
-    <t>Total per Hour</t>
-  </si>
-  <si>
-    <t>Total per Second</t>
-  </si>
-  <si>
     <t>Container</t>
   </si>
   <si>
     <t>products</t>
+  </si>
+  <si>
+    <t>Peak TPS</t>
+  </si>
+  <si>
+    <t>List of ProductMin</t>
+  </si>
+  <si>
+    <t>Result / Doctype</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>ProductOnHand</t>
+  </si>
+  <si>
+    <t>Transactons/Day</t>
+  </si>
+  <si>
+    <t>Ingest Nightly Batch of Updates</t>
+  </si>
+  <si>
+    <t>Peak Sum RU/Sec</t>
+  </si>
+  <si>
+    <t>upsert w/SDK  (0.8k doc)</t>
+  </si>
+  <si>
+    <t>upsert w/SDK  (50K doc)</t>
+  </si>
+  <si>
+    <t>Update Product On Hand at Location, option 1</t>
+  </si>
+  <si>
+    <t>Update Product On Hand at Location, option 2</t>
+  </si>
+  <si>
+    <t>Total per Second, products container</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,8 +131,17 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <u/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -138,16 +168,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,255 +500,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E551A988-F008-7847-8A31-90D9E1CF0983}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>500</v>
+      </c>
+      <c r="E3" s="5">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
+        <f>D3 * E3</f>
+        <v>10000</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>400000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2">
+        <f>D5 * E5</f>
+        <v>780</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3600000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>70</v>
+      </c>
+      <c r="E7" s="5">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2">
+        <f>D7 * E7</f>
+        <v>700</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <f>D9 * E9</f>
+        <v>16</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5">
+        <v>300</v>
+      </c>
+      <c r="F11" s="2">
+        <f>D11 * E11</f>
+        <v>2400</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
+        <v>16000000</v>
+      </c>
+      <c r="D13" s="2">
+        <v>300</v>
+      </c>
+      <c r="E13" s="5">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2">
+        <f>D13 * E13</f>
+        <v>1500</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="E3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="C14" s="2">
+        <v>16000000</v>
+      </c>
+      <c r="D14" s="2">
+        <v>300</v>
+      </c>
+      <c r="E14" s="5">
+        <v>300</v>
+      </c>
+      <c r="F14" s="7">
+        <f>D14 * E14</f>
+        <v>90000</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="3">
-        <f>E5 * F5</f>
-        <v>19500000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3600000</v>
-      </c>
-      <c r="E5" s="3">
-        <v>500000</v>
-      </c>
-      <c r="F5" s="4">
-        <v>39</v>
-      </c>
-      <c r="G5" s="3">
-        <f>E7 * F7</f>
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3">
-        <v>400000</v>
-      </c>
-      <c r="E7" s="3">
-        <v>55000</v>
-      </c>
-      <c r="F7" s="4">
-        <v>10</v>
-      </c>
-      <c r="G7" s="3">
-        <f>E9 * F9</f>
-        <v>63000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3">
-        <v>10000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F9" s="4">
-        <v>45</v>
-      </c>
-      <c r="G9" s="3">
-        <f>E11 * F11</f>
-        <v>176400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="3">
-        <v>30000</v>
-      </c>
-      <c r="E11" s="3">
-        <v>4200</v>
-      </c>
-      <c r="F11" s="4">
-        <v>42</v>
-      </c>
-      <c r="G11" s="3">
-        <f>E13 * F13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3">
-        <f>SUM(G3:G12)</f>
-        <v>20289400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="6">
-        <f>G13 / 3600</f>
-        <v>5635.9444444444443</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D16" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D17" s="3"/>
+      <c r="F16" s="4">
+        <f>SUM(F3:F15)</f>
+        <v>105396</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D18" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D19" s="3"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D20" s="3"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
       <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
